--- a/medicine/Mort/Cimetière_de_Verrewinkel/Cimetière_de_Verrewinkel.xlsx
+++ b/medicine/Mort/Cimetière_de_Verrewinkel/Cimetière_de_Verrewinkel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Verrewinkel</t>
+          <t>Cimetière_de_Verrewinkel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière de Verrewinkel est situé dans la commune bruxelloise d'Uccle, en Belgique. Il est encadré par les zones spéciales de conservation du Kauwberg, du parc de la Sauvagère et du plateau Engeland. Une flore relativement rare et spécifique des sols sableux est encore présente au cimetière[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière de Verrewinkel est situé dans la commune bruxelloise d'Uccle, en Belgique. Il est encadré par les zones spéciales de conservation du Kauwberg, du parc de la Sauvagère et du plateau Engeland. Une flore relativement rare et spécifique des sols sableux est encore présente au cimetière.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Verrewinkel</t>
+          <t>Cimetière_de_Verrewinkel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’expansion démographique et la fermeture des cimetières de Saint-Job (1871) et de Saint-Pierre (1876) ont pour conséquence la rapide saturation du cimetière du Dieweg, qui contraint les autorités à ouvrir le nouveau cimetière de Verrewinkel en 1945.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Verrewinkel</t>
+          <t>Cimetière_de_Verrewinkel</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Personnalités inhumées au Verrewinkel</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Hubert Ansiaux (1908-1987), banquier belge, gouverneur de la Banque nationale de Belgique
 Albert Demuyser (1920-2003), peintre animalier belge
